--- a/analises_vitimizacao/dados_tratados/PNAD_2009/xlsx/furto/cv125121a.xlsx
+++ b/analises_vitimizacao/dados_tratados/PNAD_2009/xlsx/furto/cv125121a.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>coeficientes de variação das estimativas de pessoas de 10 anos ou mais de idade que procuraram a polícia em decorrência do último furto que foram vítimas, no período de referência de 365 dias, mas não fizeram registro do último furto na delegacia de polícia (%)</t>
   </si>
@@ -43,18 +43,12 @@
     <t>total (1)</t>
   </si>
   <si>
-    <t>sexo</t>
-  </si>
-  <si>
     <t>homens</t>
   </si>
   <si>
     <t>mulheres</t>
   </si>
   <si>
-    <t>cor ou raça</t>
-  </si>
-  <si>
     <t>branca</t>
   </si>
   <si>
@@ -67,9 +61,6 @@
     <t>parda</t>
   </si>
   <si>
-    <t>grupos de idade</t>
-  </si>
-  <si>
     <t>10 a 24 anos</t>
   </si>
   <si>
@@ -85,9 +76,6 @@
     <t>50 anos ou mais</t>
   </si>
   <si>
-    <t>classes de rendimento mensal domiciliar per capita</t>
-  </si>
-  <si>
     <t>total (2)(3)</t>
   </si>
   <si>
@@ -104,9 +92,6 @@
   </si>
   <si>
     <t xml:space="preserve">2 salários mínimos ou mais (2) </t>
-  </si>
-  <si>
-    <t>fonte: ibge, diretoria de pesquisas, coordenação de trabalho e rendimento, pesquisa nacional por amostra de domicílios 2009.</t>
   </si>
 </sst>
 </file>
@@ -464,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H26"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -536,31 +521,52 @@
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="B5">
+        <v>7.271577638217321</v>
+      </c>
+      <c r="C5">
+        <v>16.53310405266607</v>
+      </c>
+      <c r="D5">
+        <v>21.85371383176248</v>
+      </c>
+      <c r="E5">
+        <v>18.02505052713633</v>
+      </c>
+      <c r="F5">
+        <v>20.62909680823876</v>
+      </c>
+      <c r="G5">
+        <v>12.88354419201064</v>
+      </c>
+      <c r="H5">
+        <v>16.45422638380496</v>
+      </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B6">
-        <v>7.271577638217321</v>
+        <v>7.294352927788966</v>
       </c>
       <c r="C6">
-        <v>16.53310405266607</v>
+        <v>17.26197342700178</v>
       </c>
       <c r="D6">
-        <v>21.85371383176248</v>
+        <v>22.56907225174616</v>
       </c>
       <c r="E6">
-        <v>18.02505052713633</v>
+        <v>19.30354403727936</v>
       </c>
       <c r="F6">
-        <v>20.62909680823876</v>
+        <v>19.19372751786775</v>
       </c>
       <c r="G6">
-        <v>12.88354419201064</v>
+        <v>15.04239478523428</v>
       </c>
       <c r="H6">
-        <v>16.45422638380496</v>
+        <v>15.10216736539094</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -568,56 +574,77 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>7.294352927788966</v>
+        <v>7.549021017786179</v>
       </c>
       <c r="C7">
-        <v>17.26197342700178</v>
+        <v>15.90418501959762</v>
       </c>
       <c r="D7">
-        <v>22.56907225174616</v>
+        <v>21.15296540165263</v>
       </c>
       <c r="E7">
-        <v>19.30354403727936</v>
+        <v>20.14041167772645</v>
       </c>
       <c r="F7">
-        <v>19.19372751786775</v>
+        <v>22.73906876758716</v>
       </c>
       <c r="G7">
-        <v>15.04239478523428</v>
+        <v>15.50021224880463</v>
       </c>
       <c r="H7">
-        <v>15.10216736539094</v>
+        <v>15.94737500675959</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="B8">
+        <v>7.057099679758583</v>
+      </c>
+      <c r="C8">
+        <v>16.11745971058428</v>
+      </c>
+      <c r="D8">
+        <v>23.1114457009257</v>
+      </c>
+      <c r="E8">
+        <v>17.72570656811556</v>
+      </c>
+      <c r="F8">
+        <v>19.05906044136092</v>
+      </c>
+      <c r="G8">
+        <v>13.85817304672361</v>
+      </c>
+      <c r="H8">
+        <v>15.69479699080041</v>
+      </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B9">
-        <v>7.549021017786179</v>
+        <v>18.09615776116077</v>
       </c>
       <c r="C9">
-        <v>15.90418501959762</v>
+        <v>59.82834867861214</v>
       </c>
       <c r="D9">
-        <v>21.15296540165263</v>
+        <v>60.86541468923061</v>
       </c>
       <c r="E9">
-        <v>20.14041167772645</v>
+        <v>51.69294785629166</v>
       </c>
       <c r="F9">
-        <v>22.73906876758716</v>
+        <v>32.43510269130071</v>
       </c>
       <c r="G9">
-        <v>15.50021224880463</v>
+        <v>30.54475345388158</v>
       </c>
       <c r="H9">
-        <v>15.94737500675959</v>
+        <v>59.14450296003196</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -625,25 +652,25 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>7.057099679758583</v>
+        <v>7.405512781931758</v>
       </c>
       <c r="C10">
-        <v>16.11745971058428</v>
+        <v>16.60198252964414</v>
       </c>
       <c r="D10">
-        <v>23.1114457009257</v>
+        <v>23.65643089906885</v>
       </c>
       <c r="E10">
-        <v>17.72570656811556</v>
+        <v>18.45729465983731</v>
       </c>
       <c r="F10">
-        <v>19.05906044136092</v>
+        <v>22.46386332063155</v>
       </c>
       <c r="G10">
-        <v>13.85817304672361</v>
+        <v>15.24161530995583</v>
       </c>
       <c r="H10">
-        <v>15.69479699080041</v>
+        <v>16.10745320742356</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -651,25 +678,25 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>18.09615776116077</v>
+        <v>11.94140506999072</v>
       </c>
       <c r="C11">
-        <v>59.82834867861214</v>
+        <v>23.37734701858705</v>
       </c>
       <c r="D11">
-        <v>60.86541468923061</v>
+        <v>34.68782407068982</v>
       </c>
       <c r="E11">
-        <v>51.69294785629166</v>
+        <v>36.62507402402348</v>
       </c>
       <c r="F11">
-        <v>32.43510269130071</v>
+        <v>31.9203965472073</v>
       </c>
       <c r="G11">
-        <v>30.54475345388158</v>
+        <v>25.71329318242151</v>
       </c>
       <c r="H11">
-        <v>59.14450296003196</v>
+        <v>27.75252214305599</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -677,56 +704,77 @@
         <v>16</v>
       </c>
       <c r="B12">
-        <v>7.405512781931758</v>
+        <v>10.19719656828595</v>
       </c>
       <c r="C12">
-        <v>16.60198252964414</v>
+        <v>26.13032843535495</v>
       </c>
       <c r="D12">
-        <v>23.65643089906885</v>
+        <v>37.18774743285265</v>
       </c>
       <c r="E12">
-        <v>18.45729465983731</v>
+        <v>22.40705268536676</v>
       </c>
       <c r="F12">
-        <v>22.46386332063155</v>
+        <v>29.11091593137526</v>
       </c>
       <c r="G12">
-        <v>15.24161530995583</v>
+        <v>18.13987465100105</v>
       </c>
       <c r="H12">
-        <v>16.10745320742356</v>
+        <v>20.91224131085761</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="B13">
+        <v>13.72647802312186</v>
+      </c>
+      <c r="C13">
+        <v>28.42680176869172</v>
+      </c>
+      <c r="D13">
+        <v>41.4140426950086</v>
+      </c>
+      <c r="E13">
+        <v>42.26528483878885</v>
+      </c>
+      <c r="F13">
+        <v>44.55561055787751</v>
+      </c>
+      <c r="G13">
+        <v>32.08378218406971</v>
+      </c>
+      <c r="H13">
+        <v>33.54907883891536</v>
+      </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B14">
-        <v>11.94140506999072</v>
+        <v>11.8061499979057</v>
       </c>
       <c r="C14">
-        <v>23.37734701858705</v>
+        <v>30.20394097406351</v>
       </c>
       <c r="D14">
-        <v>34.68782407068982</v>
+        <v>38.7632851821606</v>
       </c>
       <c r="E14">
-        <v>36.62507402402348</v>
+        <v>30.34199640306776</v>
       </c>
       <c r="F14">
-        <v>31.9203965472073</v>
+        <v>30.68105635072406</v>
       </c>
       <c r="G14">
-        <v>25.71329318242151</v>
+        <v>21.17584209475175</v>
       </c>
       <c r="H14">
-        <v>27.75252214305599</v>
+        <v>23.36324650148106</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -734,25 +782,25 @@
         <v>19</v>
       </c>
       <c r="B15">
-        <v>10.19719656828595</v>
+        <v>9.49906606575661</v>
       </c>
       <c r="C15">
-        <v>26.13032843535495</v>
+        <v>21.81851251253374</v>
       </c>
       <c r="D15">
-        <v>37.18774743285265</v>
+        <v>28.75690204355052</v>
       </c>
       <c r="E15">
-        <v>22.40705268536676</v>
+        <v>25.03990364549829</v>
       </c>
       <c r="F15">
-        <v>29.11091593137526</v>
+        <v>26.86934271084719</v>
       </c>
       <c r="G15">
-        <v>18.13987465100105</v>
+        <v>19.2473918566034</v>
       </c>
       <c r="H15">
-        <v>20.91224131085761</v>
+        <v>22.18717737589363</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -760,25 +808,25 @@
         <v>20</v>
       </c>
       <c r="B16">
-        <v>13.72647802312186</v>
+        <v>5.387403382729794</v>
       </c>
       <c r="C16">
-        <v>28.42680176869172</v>
+        <v>11.77063262412606</v>
       </c>
       <c r="D16">
-        <v>41.4140426950086</v>
+        <v>16.06760978350885</v>
       </c>
       <c r="E16">
-        <v>42.26528483878885</v>
+        <v>13.30209344255814</v>
       </c>
       <c r="F16">
-        <v>44.55561055787751</v>
+        <v>14.63828629990292</v>
       </c>
       <c r="G16">
-        <v>32.08378218406971</v>
+        <v>10.326054480229</v>
       </c>
       <c r="H16">
-        <v>33.54907883891536</v>
+        <v>12.00031395376143</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -786,25 +834,25 @@
         <v>21</v>
       </c>
       <c r="B17">
-        <v>11.8061499979057</v>
+        <v>17.859388725917</v>
       </c>
       <c r="C17">
-        <v>30.20394097406351</v>
+        <v>29.66019362557027</v>
       </c>
       <c r="D17">
-        <v>38.7632851821606</v>
+        <v>61.73818386071391</v>
       </c>
       <c r="E17">
-        <v>30.34199640306776</v>
+        <v>49.55528786301879</v>
       </c>
       <c r="F17">
-        <v>30.68105635072406</v>
+        <v>44.03013636645709</v>
       </c>
       <c r="G17">
-        <v>21.17584209475175</v>
+        <v>34.32361773428224</v>
       </c>
       <c r="H17">
-        <v>23.36324650148106</v>
+        <v>40.48719157665269</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -812,56 +860,77 @@
         <v>22</v>
       </c>
       <c r="B18">
-        <v>9.49906606575661</v>
+        <v>12.58311587522816</v>
       </c>
       <c r="C18">
-        <v>21.81851251253374</v>
+        <v>28.40898233465533</v>
       </c>
       <c r="D18">
-        <v>28.75690204355052</v>
+        <v>46.47387019501372</v>
       </c>
       <c r="E18">
-        <v>25.03990364549829</v>
+        <v>37.6371686820284</v>
       </c>
       <c r="F18">
-        <v>26.86934271084719</v>
+        <v>30.51971707313654</v>
       </c>
       <c r="G18">
-        <v>19.2473918566034</v>
+        <v>21.98250286363828</v>
       </c>
       <c r="H18">
-        <v>22.18717737589363</v>
+        <v>31.16152878140587</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="B19">
+        <v>10.39192446351487</v>
+      </c>
+      <c r="C19">
+        <v>25.31944559195118</v>
+      </c>
+      <c r="D19">
+        <v>33.88945735813748</v>
+      </c>
+      <c r="E19">
+        <v>23.92398966870312</v>
+      </c>
+      <c r="F19">
+        <v>27.50105850838492</v>
+      </c>
+      <c r="G19">
+        <v>19.09258228288815</v>
+      </c>
+      <c r="H19">
+        <v>23.40151864763016</v>
+      </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B20">
-        <v>5.387403382729794</v>
+        <v>10.19379062859038</v>
       </c>
       <c r="C20">
-        <v>11.77063262412606</v>
+        <v>21.35129711926809</v>
       </c>
       <c r="D20">
-        <v>16.06760978350885</v>
+        <v>32.21798808958533</v>
       </c>
       <c r="E20">
-        <v>13.30209344255814</v>
+        <v>29.10212476557459</v>
       </c>
       <c r="F20">
-        <v>14.63828629990292</v>
+        <v>31.88352485795141</v>
       </c>
       <c r="G20">
-        <v>10.326054480229</v>
+        <v>21.63633018135524</v>
       </c>
       <c r="H20">
-        <v>12.00031395376143</v>
+        <v>19.06651838522319</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -869,134 +938,25 @@
         <v>25</v>
       </c>
       <c r="B21">
-        <v>17.859388725917</v>
+        <v>11.7814181367877</v>
       </c>
       <c r="C21">
-        <v>29.66019362557027</v>
+        <v>40.70473377916795</v>
       </c>
       <c r="D21">
-        <v>61.73818386071391</v>
+        <v>27.84030921247587</v>
       </c>
       <c r="E21">
-        <v>49.55528786301879</v>
+        <v>24.08363921615022</v>
       </c>
       <c r="F21">
-        <v>44.03013636645709</v>
+        <v>32.76276535859011</v>
       </c>
       <c r="G21">
-        <v>34.32361773428224</v>
+        <v>25.40800766519148</v>
       </c>
       <c r="H21">
-        <v>40.48719157665269</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
-      <c r="A22" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B22">
-        <v>12.58311587522816</v>
-      </c>
-      <c r="C22">
-        <v>28.40898233465533</v>
-      </c>
-      <c r="D22">
-        <v>46.47387019501372</v>
-      </c>
-      <c r="E22">
-        <v>37.6371686820284</v>
-      </c>
-      <c r="F22">
-        <v>30.51971707313654</v>
-      </c>
-      <c r="G22">
-        <v>21.98250286363828</v>
-      </c>
-      <c r="H22">
-        <v>31.16152878140587</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
-      <c r="A23" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B23">
-        <v>10.39192446351487</v>
-      </c>
-      <c r="C23">
-        <v>25.31944559195118</v>
-      </c>
-      <c r="D23">
-        <v>33.88945735813748</v>
-      </c>
-      <c r="E23">
-        <v>23.92398966870312</v>
-      </c>
-      <c r="F23">
-        <v>27.50105850838492</v>
-      </c>
-      <c r="G23">
-        <v>19.09258228288815</v>
-      </c>
-      <c r="H23">
-        <v>23.40151864763016</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
-      <c r="A24" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B24">
-        <v>10.19379062859038</v>
-      </c>
-      <c r="C24">
-        <v>21.35129711926809</v>
-      </c>
-      <c r="D24">
-        <v>32.21798808958533</v>
-      </c>
-      <c r="E24">
-        <v>29.10212476557459</v>
-      </c>
-      <c r="F24">
-        <v>31.88352485795141</v>
-      </c>
-      <c r="G24">
-        <v>21.63633018135524</v>
-      </c>
-      <c r="H24">
-        <v>19.06651838522319</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
-      <c r="A25" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B25">
-        <v>11.7814181367877</v>
-      </c>
-      <c r="C25">
-        <v>40.70473377916795</v>
-      </c>
-      <c r="D25">
-        <v>27.84030921247587</v>
-      </c>
-      <c r="E25">
-        <v>24.08363921615022</v>
-      </c>
-      <c r="F25">
-        <v>32.76276535859011</v>
-      </c>
-      <c r="G25">
-        <v>25.40800766519148</v>
-      </c>
-      <c r="H25">
         <v>25.27748654287359</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
-      <c r="A26" s="1" t="s">
-        <v>30</v>
       </c>
     </row>
   </sheetData>
